--- a/06-03-2023/data/output/xlsx/sample_0/category__7.xlsx
+++ b/06-03-2023/data/output/xlsx/sample_0/category__7.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="183">
   <si>
     <t>Causality Values Chart</t>
   </si>
@@ -58,12 +58,69 @@
     <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__7</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__10</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__11</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__12</t>
   </si>
   <si>
@@ -85,78 +142,288 @@
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__4</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__9,num_of_equals__9,pairs_of_parentheses__0,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__9,num_of_equals__9,pairs_of_parentheses__0,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__9,pairs_of_parentheses__0,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__9,pairs_of_parentheses__0,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_decimals__0,pairs_of_parentheses__0,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,pairs_of_parentheses__0,pairs_of_parentheses__3</t>
+    <t>num_of_mults_and_divs__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__7</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__8</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__9</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__10</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__11</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__12</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__13</t>
+  </si>
+  <si>
+    <t>num_of_equals__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_equals__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_equals__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_equals__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_equals__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_equals__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_equals__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_equals__7</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_equals__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_equals__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_equals__10</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_equals__11</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_equals__12</t>
+  </si>
+  <si>
+    <t>num_of_equals__13</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__7</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__10</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__11</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__12</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__13</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__14</t>
   </si>
   <si>
     <t>num_of_decimals__0</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__2,num_of_decimals__9,pairs_of_parentheses__0,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
   </si>
   <si>
     <t>num_of_decimals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__2,num_of_decimals__9,pairs_of_parentheses__0,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_decimals__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_decimals__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_decimals__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_decimals__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_decimals__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_decimals__7</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_decimals__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_decimals__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
   </si>
   <si>
     <t>num_of_decimals__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__2,num_of_decimals__9,pairs_of_parentheses__0,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
   </si>
   <si>
     <t>num_of_decimals__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__12,num_of_decimals__2,num_of_decimals__9,pairs_of_parentheses__0,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
     <t>num_of_decimals__12</t>
   </si>
   <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__9,pairs_of_parentheses__0,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
-  </si>
-  <si>
     <t>num_of_decimals__13</t>
   </si>
   <si>
@@ -178,12 +445,6 @@
     <t>num_of_decimals__19</t>
   </si>
   <si>
-    <t>num_of_decimals__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__9,pairs_of_parentheses__0,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
     <t>num_of_decimals__20</t>
   </si>
   <si>
@@ -214,123 +475,54 @@
     <t>num_of_decimals__29</t>
   </si>
   <si>
-    <t>num_of_decimals__3</t>
-  </si>
-  <si>
-    <t>num_of_decimals__4</t>
-  </si>
-  <si>
-    <t>num_of_decimals__5</t>
-  </si>
-  <si>
-    <t>num_of_decimals__6</t>
-  </si>
-  <si>
-    <t>num_of_decimals__7</t>
-  </si>
-  <si>
-    <t>num_of_decimals__8</t>
-  </si>
-  <si>
-    <t>num_of_decimals__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__2,pairs_of_parentheses__0,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_equals__0</t>
-  </si>
-  <si>
-    <t>num_of_equals__1</t>
-  </si>
-  <si>
-    <t>num_of_equals__10</t>
-  </si>
-  <si>
-    <t>num_of_equals__11</t>
-  </si>
-  <si>
-    <t>num_of_equals__12</t>
-  </si>
-  <si>
-    <t>num_of_equals__13</t>
-  </si>
-  <si>
-    <t>num_of_equals__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__3</t>
-  </si>
-  <si>
-    <t>num_of_equals__4</t>
-  </si>
-  <si>
-    <t>num_of_equals__5</t>
-  </si>
-  <si>
-    <t>num_of_equals__6</t>
-  </si>
-  <si>
-    <t>num_of_equals__7</t>
-  </si>
-  <si>
-    <t>num_of_equals__8</t>
-  </si>
-  <si>
-    <t>num_of_equals__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__0</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__1</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__10</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__11</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__12</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__13</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__2</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__3</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__4</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__5</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__6</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__7</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__8</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__9</t>
-  </si>
-  <si>
     <t>num_of_unknowns__0</t>
   </si>
   <si>
     <t>num_of_unknowns__1</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__5,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__7</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__9</t>
+  </si>
+  <si>
     <t>num_of_unknowns__10</t>
   </si>
   <si>
@@ -338,87 +530,6 @@
   </si>
   <si>
     <t>num_of_unknowns__12</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__4</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__5</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__7</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__9</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__2,num_of_decimals__9,num_of_equals__9,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__10</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__11</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__12</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__13</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__14</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__2,num_of_decimals__9,pairs_of_parentheses__0,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__4</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__2,num_of_decimals__9,pairs_of_parentheses__0,pairs_of_parentheses__3,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__9,pairs_of_parentheses__0,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__6</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__9</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>
@@ -574,30 +685,90 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>AddsSubs!$C$4:$C$7</c:f>
+              <c:f>AddsSubs!$C$4:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AddsSubs!$D$4:$D$7</c:f>
+              <c:f>AddsSubs!$D$4:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.9830097087378641</c:v>
+                  <c:v>0.03166496424923392</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9791044776119403</c:v>
+                  <c:v>0.03631961259079903</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05825242718446602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08080808080808081</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0761904761904762</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08860759493670886</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.07692307692307693</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1818181818181818</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -718,10 +889,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>MultsDivs!$C$4:$C$8</c:f>
+              <c:f>MultsDivs!$C$4:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -730,24 +901,54 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MultsDivs!$D$4:$D$8</c:f>
+              <c:f>MultsDivs!$D$4:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.9591836734693877</c:v>
+                  <c:v>0.053475935828877</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9743589743589743</c:v>
+                  <c:v>0.0352112676056338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>0.03225806451612903</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0410958904109589</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.03703703703703703</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05405405405405406</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.09090909090909091</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.05882352941176471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -868,30 +1069,90 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Equations!$C$4:$C$7</c:f>
+              <c:f>Equations!$C$4:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Equations!$D$4:$D$7</c:f>
+              <c:f>Equations!$D$4:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.9833333333333333</c:v>
+                  <c:v>0.0320962888665998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9833333333333333</c:v>
+                  <c:v>0.03229061553985873</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04823747680890538</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06104651162790697</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.09558823529411764</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1195652173913044</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1176470588235294</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2222222222222222</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1012,10 +1273,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Decimals!$C$4:$C$10</c:f>
+              <c:f>Decimals!$C$4:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1030,30 +1291,66 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Decimals!$D$4:$D$10</c:f>
+              <c:f>Decimals!$D$4:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.9901960784313726</c:v>
+                  <c:v>0.04340836012861737</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9925373134328358</c:v>
+                  <c:v>0.04471544715447155</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.04657534246575343</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.06324110671936758</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0.09580838323353294</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1031746031746032</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1058823529411765</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.09230769230769231</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0975609756097561</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.03225806451612903</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.04347826086956522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1174,30 +1471,60 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Unknowns!$C$4:$C$7</c:f>
+              <c:f>Unknowns!$C$4:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Unknowns!$D$4:$D$7</c:f>
+              <c:f>Unknowns!$D$4:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.9833333333333333</c:v>
+                  <c:v>0.03206412825651302</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9750889679715302</c:v>
+                  <c:v>0.03367496339677892</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.08421052631578947</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.09615384615384616</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04347826086956522</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.07142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.09090909090909091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1318,30 +1645,60 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$C$4:$C$7</c:f>
+              <c:f>PairsOfParentheses!$C$4:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$D$4:$D$7</c:f>
+              <c:f>PairsOfParentheses!$D$4:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.9855072463768116</c:v>
+                  <c:v>0.06030150753768844</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9354838709677419</c:v>
+                  <c:v>0.1019108280254777</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1066666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04651162790697674</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1176470588235294</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1958,16 +2315,16 @@
         <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>412</v>
+        <v>979</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>0.9830097087378641</v>
+        <v>0.03166496424923392</v>
       </c>
       <c r="E3" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
@@ -1979,247 +2336,269 @@
         <v>11</v>
       </c>
       <c r="B4" s="1">
-        <v>335</v>
+        <v>826</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>0.9791044776119403</v>
+        <v>0.03631961259079903</v>
       </c>
       <c r="E4" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.09062161407338337</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>0.05825242718446602</v>
       </c>
       <c r="E5" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.07814380947036295</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>0.08080808080808081</v>
       </c>
       <c r="E6" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.06785996190248443</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>0.0761904761904762</v>
       </c>
       <c r="E7" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.04676760419452651</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1">
         <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>0.08860759493670886</v>
       </c>
       <c r="E8" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.0539117315081746</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="E9" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.01359902696960811</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1">
         <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E10" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.03024778537842564</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1">
         <v>9</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E11" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.09946119129391066</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E12" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.0593488555661752</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1">
         <v>11</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E13" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-0.03107336349309952</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1">
         <v>12</v>
       </c>
       <c r="D14" s="1">
-        <v>0.9673913043478261</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E14" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-0.01862571439488262</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1">
         <v>13</v>
       </c>
       <c r="D15" s="1">
-        <v>0.9787234042553191</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
@@ -2228,326 +2607,320 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1">
         <v>14</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.4404623867492778</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1">
         <v>15</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.3779282267438122</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B18" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1">
         <v>16</v>
       </c>
       <c r="D18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.2697265479554602</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B19" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1">
         <v>17</v>
       </c>
       <c r="D19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0.2029942997617246</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1">
         <v>18</v>
       </c>
       <c r="D20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0.1280563446118442</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1">
         <v>19</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.1280563446118442</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B22" s="1">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="C22" s="1">
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>0.9901960784313726</v>
+        <v>0.053475935828877</v>
       </c>
       <c r="E22" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G22" s="1">
-        <v>0.6223865732076295</v>
+        <v>-0.06851180366561964</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C23" s="1">
         <v>21</v>
       </c>
       <c r="D23" s="1">
-        <v>0.9925373134328358</v>
+        <v>0.0352112676056338</v>
       </c>
       <c r="E23" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G23" s="1">
-        <v>0.4992032596243683</v>
+        <v>-0.0814716229511893</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B24" s="1">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="C24" s="1">
         <v>22</v>
       </c>
       <c r="D24" s="1">
-        <v>1</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E24" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G24" s="1">
-        <v>0.2174402398028319</v>
+        <v>-0.05976660887318066</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="C25" s="1">
         <v>23</v>
       </c>
       <c r="D25" s="1">
-        <v>1</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="E25" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G25" s="1">
-        <v>0.2174402398028319</v>
+        <v>-0.04090906406845984</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C26" s="1">
         <v>24</v>
       </c>
       <c r="D26" s="1">
-        <v>1</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="E26" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G26" s="1">
-        <v>0.004829311862310923</v>
+        <v>-0.03774787336419584</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B27" s="1">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1">
         <v>25</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="E27" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="1">
+        <v>-0.02889574988876376</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B28" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C28" s="1">
         <v>26</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E28" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.03454521779378385</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B29" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C29" s="1">
         <v>27</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="E29" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="1">
+        <v>-0.02063616248711367</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B30" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C30" s="1">
         <v>28</v>
@@ -2556,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
@@ -2565,10 +2938,10 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B31" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C31" s="1">
         <v>29</v>
@@ -2577,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
@@ -2586,10 +2959,10 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B32" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C32" s="1">
         <v>30</v>
@@ -2598,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
@@ -2607,10 +2980,10 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B33" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C33" s="1">
         <v>31</v>
@@ -2619,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
@@ -2628,33 +3001,31 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B34" s="1">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="C34" s="1">
         <v>32</v>
       </c>
       <c r="D34" s="1">
-        <v>0.9886363636363636</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0.4262164804443249</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1">
         <v>33</v>
@@ -2663,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
@@ -2672,271 +3043,295 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B36" s="1">
-        <v>0</v>
+        <v>997</v>
       </c>
       <c r="C36" s="1">
         <v>34</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>0.0320962888665998</v>
       </c>
       <c r="E36" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.0858829304990036</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B37" s="1">
-        <v>0</v>
+        <v>991</v>
       </c>
       <c r="C37" s="1">
         <v>35</v>
       </c>
       <c r="D37" s="1">
-        <v>0</v>
+        <v>0.03229061553985873</v>
       </c>
       <c r="E37" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.08596809032847273</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B38" s="1">
-        <v>0</v>
+        <v>539</v>
       </c>
       <c r="C38" s="1">
         <v>36</v>
       </c>
       <c r="D38" s="1">
-        <v>0</v>
+        <v>0.04823747680890538</v>
       </c>
       <c r="E38" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.06861603718574726</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B39" s="1">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="C39" s="1">
         <v>37</v>
       </c>
       <c r="D39" s="1">
-        <v>0</v>
+        <v>0.06104651162790697</v>
       </c>
       <c r="E39" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.06436964008666746</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B40" s="1">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="C40" s="1">
         <v>38</v>
       </c>
       <c r="D40" s="1">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E40" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.07224071804897156</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B41" s="1">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="C41" s="1">
         <v>39</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
+        <v>0.09558823529411764</v>
       </c>
       <c r="E41" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.07774161206936928</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B42" s="1">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="C42" s="1">
         <v>40</v>
       </c>
       <c r="D42" s="1">
-        <v>0</v>
+        <v>0.1195652173913044</v>
       </c>
       <c r="E42" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.05714076066865608</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B43" s="1">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C43" s="1">
         <v>41</v>
       </c>
       <c r="D43" s="1">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E43" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.05538855748635695</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B44" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C44" s="1">
         <v>42</v>
       </c>
       <c r="D44" s="1">
-        <v>0</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="E44" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.04590307525814948</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="B45" s="1">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C45" s="1">
         <v>43</v>
       </c>
       <c r="D45" s="1">
-        <v>0.9777777777777777</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="E45" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.03112036159235255</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B46" s="1">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C46" s="1">
         <v>44</v>
       </c>
       <c r="D46" s="1">
-        <v>0.9655172413793104</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E46" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.09797583171560979</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B47" s="1">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C47" s="1">
         <v>45</v>
       </c>
       <c r="D47" s="1">
-        <v>0.9411764705882353</v>
+        <v>0.2</v>
       </c>
       <c r="E47" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.02516220262834747</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="B48" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C48" s="1">
         <v>46</v>
       </c>
       <c r="D48" s="1">
-        <v>0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
@@ -2945,19 +3340,19 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B49" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C49" s="1">
         <v>47</v>
       </c>
       <c r="D49" s="1">
-        <v>0.8333333333333334</v>
+        <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
@@ -2966,159 +3361,171 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="B50" s="1">
-        <v>5</v>
+        <v>398</v>
       </c>
       <c r="C50" s="1">
         <v>48</v>
       </c>
       <c r="D50" s="1">
-        <v>0.8</v>
+        <v>0.06030150753768844</v>
       </c>
       <c r="E50" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.002279250458302557</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B51" s="1">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="C51" s="1">
         <v>49</v>
       </c>
       <c r="D51" s="1">
-        <v>1</v>
+        <v>0.1019108280254777</v>
       </c>
       <c r="E51" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="G51" s="1">
-        <v>0.2174402398028319</v>
+        <v>0.06244157268858629</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="B52" s="1">
-        <v>420</v>
+        <v>75</v>
       </c>
       <c r="C52" s="1">
         <v>50</v>
       </c>
       <c r="D52" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="E52" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.06609275663548383</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="B53" s="1">
-        <v>420</v>
+        <v>43</v>
       </c>
       <c r="C53" s="1">
         <v>51</v>
       </c>
       <c r="D53" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="E53" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G53" s="1">
+        <v>-0.03893068033744247</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="B54" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C54" s="1">
         <v>52</v>
       </c>
       <c r="D54" s="1">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="E54" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G54" s="1">
+        <v>-0.0115950265920289</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="B55" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C55" s="1">
         <v>53</v>
       </c>
       <c r="D55" s="1">
-        <v>0</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="E55" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.01811130755192036</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="B56" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C56" s="1">
         <v>54</v>
       </c>
       <c r="D56" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E56" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0.09711155460150377</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="B57" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C57" s="1">
         <v>55</v>
@@ -3127,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
@@ -3136,19 +3543,19 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="B58" s="1">
-        <v>208</v>
+        <v>3</v>
       </c>
       <c r="C58" s="1">
         <v>56</v>
       </c>
       <c r="D58" s="1">
-        <v>0.9759615384615384</v>
+        <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
@@ -3157,19 +3564,19 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="B59" s="1">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="C59" s="1">
         <v>57</v>
       </c>
       <c r="D59" s="1">
-        <v>0.9557522123893806</v>
+        <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1" t="s">
@@ -3178,19 +3585,19 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B60" s="1">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="C60" s="1">
         <v>58</v>
       </c>
       <c r="D60" s="1">
-        <v>0.9090909090909091</v>
+        <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1" t="s">
@@ -3199,19 +3606,19 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="B61" s="1">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C61" s="1">
         <v>59</v>
       </c>
       <c r="D61" s="1">
-        <v>0.8787878787878788</v>
+        <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1" t="s">
@@ -3220,19 +3627,19 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="B62" s="1">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C62" s="1">
         <v>60</v>
       </c>
       <c r="D62" s="1">
-        <v>0.8695652173913043</v>
+        <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
@@ -3241,19 +3648,19 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="B63" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C63" s="1">
         <v>61</v>
       </c>
       <c r="D63" s="1">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
@@ -3262,19 +3669,19 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B64" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C64" s="1">
         <v>62</v>
       </c>
       <c r="D64" s="1">
-        <v>0.9090909090909091</v>
+        <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
@@ -3283,252 +3690,272 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="B65" s="1">
-        <v>1</v>
+        <v>622</v>
       </c>
       <c r="C65" s="1">
         <v>63</v>
       </c>
       <c r="D65" s="1">
-        <v>1</v>
+        <v>0.04340836012861737</v>
       </c>
       <c r="E65" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="G65" s="1">
-        <v>0.004866180048661795</v>
+        <v>0.09649871986040559</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="B66" s="1">
-        <v>49</v>
+        <v>492</v>
       </c>
       <c r="C66" s="1">
         <v>64</v>
       </c>
       <c r="D66" s="1">
-        <v>0.9591836734693877</v>
+        <v>0.04471544715447155</v>
       </c>
       <c r="E66" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0.003978176902133148</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="B67" s="1">
-        <v>39</v>
+        <v>365</v>
       </c>
       <c r="C67" s="1">
         <v>65</v>
       </c>
       <c r="D67" s="1">
-        <v>0.9743589743589743</v>
+        <v>0.04657534246575343</v>
       </c>
       <c r="E67" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G67" s="1">
+        <v>-0.09330432959375877</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="B68" s="1">
-        <v>2</v>
+        <v>253</v>
       </c>
       <c r="C68" s="1">
         <v>66</v>
       </c>
       <c r="D68" s="1">
-        <v>0.5</v>
+        <v>0.06324110671936758</v>
       </c>
       <c r="E68" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G68" s="1">
+        <v>-0.06699571699871447</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B69" s="1">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="C69" s="1">
         <v>67</v>
       </c>
       <c r="D69" s="1">
-        <v>0</v>
+        <v>0.09580838323353294</v>
       </c>
       <c r="E69" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G69" s="1">
+        <v>-0.02765661962027768</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="B70" s="1">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="C70" s="1">
         <v>68</v>
       </c>
       <c r="D70" s="1">
-        <v>0</v>
+        <v>0.1031746031746032</v>
       </c>
       <c r="E70" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G70" s="1">
+        <v>-0.01578772321414448</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B71" s="1">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="C71" s="1">
         <v>69</v>
       </c>
       <c r="D71" s="1">
-        <v>0</v>
+        <v>0.1058823529411765</v>
       </c>
       <c r="E71" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G71" s="1">
+        <v>-0.0410668307679105</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="B72" s="1">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="C72" s="1">
         <v>70</v>
       </c>
       <c r="D72" s="1">
-        <v>0.9545454545454546</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="E72" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G72" s="1">
+        <v>-0.04543633136789826</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="B73" s="1">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C73" s="1">
         <v>71</v>
       </c>
       <c r="D73" s="1">
-        <v>0.9411764705882353</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="E73" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G73" s="1">
+        <v>-0.04223865826446917</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="B74" s="1">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C74" s="1">
         <v>72</v>
       </c>
       <c r="D74" s="1">
-        <v>0.9166666666666666</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E74" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G74" s="1">
+        <v>-0.07188640329083977</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="B75" s="1">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C75" s="1">
         <v>73</v>
       </c>
       <c r="D75" s="1">
-        <v>0.8333333333333334</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="E75" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G75" s="1">
+        <v>-0.05710534868752699</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="B76" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C76" s="1">
         <v>74</v>
       </c>
       <c r="D76" s="1">
-        <v>0.8333333333333334</v>
+        <v>0</v>
       </c>
       <c r="E76" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1" t="s">
@@ -3537,19 +3964,19 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="B77" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C77" s="1">
         <v>75</v>
       </c>
       <c r="D77" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1" t="s">
@@ -3558,19 +3985,19 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="B78" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C78" s="1">
         <v>76</v>
       </c>
       <c r="D78" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
@@ -3579,19 +4006,19 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="B79" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C79" s="1">
         <v>77</v>
       </c>
       <c r="D79" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1" t="s">
@@ -3600,19 +4027,19 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="B80" s="1">
-        <v>420</v>
+        <v>6</v>
       </c>
       <c r="C80" s="1">
         <v>78</v>
       </c>
       <c r="D80" s="1">
-        <v>0.9833333333333333</v>
+        <v>0</v>
       </c>
       <c r="E80" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1" t="s">
@@ -3621,19 +4048,19 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="B81" s="1">
-        <v>281</v>
+        <v>5</v>
       </c>
       <c r="C81" s="1">
         <v>79</v>
       </c>
       <c r="D81" s="1">
-        <v>0.9750889679715302</v>
+        <v>0</v>
       </c>
       <c r="E81" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1" t="s">
@@ -3642,10 +4069,10 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="B82" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C82" s="1">
         <v>80</v>
@@ -3654,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="E82" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1" t="s">
@@ -3663,10 +4090,10 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="B83" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C83" s="1">
         <v>81</v>
@@ -3675,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="E83" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1" t="s">
@@ -3684,10 +4111,10 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="B84" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C84" s="1">
         <v>82</v>
@@ -3696,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="E84" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1" t="s">
@@ -3705,19 +4132,19 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="B85" s="1">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C85" s="1">
         <v>83</v>
       </c>
       <c r="D85" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E85" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1" t="s">
@@ -3726,19 +4153,19 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="B86" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C86" s="1">
         <v>84</v>
       </c>
       <c r="D86" s="1">
-        <v>0.5714285714285714</v>
+        <v>0</v>
       </c>
       <c r="E86" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1" t="s">
@@ -3747,19 +4174,19 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="B87" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C87" s="1">
         <v>85</v>
       </c>
       <c r="D87" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E87" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1" t="s">
@@ -3768,19 +4195,19 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="B88" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C88" s="1">
         <v>86</v>
       </c>
       <c r="D88" s="1">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E88" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1" t="s">
@@ -3789,19 +4216,19 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="B89" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C89" s="1">
         <v>87</v>
       </c>
       <c r="D89" s="1">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E89" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1" t="s">
@@ -3810,10 +4237,10 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="B90" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C90" s="1">
         <v>88</v>
@@ -3822,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1" t="s">
@@ -3831,10 +4258,10 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="B91" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C91" s="1">
         <v>89</v>
@@ -3843,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1" t="s">
@@ -3852,10 +4279,10 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="B92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" s="1">
         <v>90</v>
@@ -3864,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="E92" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1" t="s">
@@ -3873,42 +4300,40 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="B93" s="1">
-        <v>138</v>
+        <v>1</v>
       </c>
       <c r="C93" s="1">
         <v>91</v>
       </c>
       <c r="D93" s="1">
-        <v>0.9855072463768116</v>
+        <v>0</v>
       </c>
       <c r="E93" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G93" s="1">
-        <v>0.8194071498331134</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="B94" s="1">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C94" s="1">
         <v>92</v>
       </c>
       <c r="D94" s="1">
-        <v>0.9354838709677419</v>
+        <v>0</v>
       </c>
       <c r="E94" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1" t="s">
@@ -3917,19 +4342,19 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="B95" s="1">
-        <v>0</v>
+        <v>998</v>
       </c>
       <c r="C95" s="1">
         <v>93</v>
       </c>
       <c r="D95" s="1">
-        <v>0</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="E95" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1" t="s">
@@ -3938,184 +4363,190 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="B96" s="1">
-        <v>0</v>
+        <v>683</v>
       </c>
       <c r="C96" s="1">
         <v>94</v>
       </c>
       <c r="D96" s="1">
-        <v>0</v>
+        <v>0.03367496339677892</v>
       </c>
       <c r="E96" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0.07680494370940943</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="B97" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="C97" s="1">
         <v>95</v>
       </c>
       <c r="D97" s="1">
-        <v>0</v>
+        <v>0.08421052631578947</v>
       </c>
       <c r="E97" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0.004619896881095549</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="B98" s="1">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C98" s="1">
         <v>96</v>
       </c>
       <c r="D98" s="1">
-        <v>0</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="E98" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G98" s="1">
+        <v>-0.04849784991151879</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="B99" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C99" s="1">
         <v>97</v>
       </c>
       <c r="D99" s="1">
-        <v>0</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="E99" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G99" s="1">
+        <v>-0.05675019494708491</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="B100" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C100" s="1">
         <v>98</v>
       </c>
       <c r="D100" s="1">
-        <v>0.875</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="E100" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1" t="s">
-        <v>10</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G100" s="1">
+        <v>-0.04143527141782526</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="B101" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C101" s="1">
         <v>99</v>
       </c>
       <c r="D101" s="1">
-        <v>1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E101" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="G101" s="1">
-        <v>0.3153518853825475</v>
+        <v>-0.03068347069361152</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="B102" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C102" s="1">
         <v>100</v>
       </c>
       <c r="D102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G102" s="1">
-        <v>0.1460116683742604</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="B103" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C103" s="1">
         <v>101</v>
       </c>
       <c r="D103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103" s="1">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G103" s="1">
-        <v>0.003370041308034831</v>
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="B104" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C104" s="1">
         <v>102</v>
@@ -4124,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="E104" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1" t="s">
@@ -4133,10 +4564,10 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="B105" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C105" s="1">
         <v>103</v>
@@ -4145,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="E105" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1" t="s">
@@ -4154,10 +4585,10 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="B106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" s="1">
         <v>104</v>
@@ -4166,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="E106" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1" t="s">
@@ -4175,10 +4606,10 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="B107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107" s="1">
         <v>105</v>
@@ -4187,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="E107" s="1">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1" t="s">
@@ -4201,7 +4632,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4212,7 +4643,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4235,25 +4666,25 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -4261,19 +4692,19 @@
         <v>9</v>
       </c>
       <c r="B4" s="3">
-        <v>412</v>
+        <v>979</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.9830097087378641</v>
+        <v>0.03166496424923392</v>
       </c>
       <c r="E4" s="3">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F4" s="1">
-        <v>-0.0003236245954691963</v>
+        <v>-0.0003991640072791083</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -4304,19 +4735,19 @@
         <v>11</v>
       </c>
       <c r="B5" s="3">
-        <v>335</v>
+        <v>826</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.9791044776119403</v>
+        <v>0.03631961259079903</v>
       </c>
       <c r="E5" s="3">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F5" s="1">
-        <v>-0.004228855721392977</v>
+        <v>0.004255484334286005</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -4339,6 +4770,436 @@
       </c>
       <c r="L5" s="1">
         <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3">
+        <v>309</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.05825242718446602</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.026188298927953</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3">
+        <v>198</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.08080808080808081</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.04874395255156779</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3">
+        <v>105</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.0761904761904762</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.04412634793396317</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3">
+        <v>79</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.08860759493670886</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.05654346668019584</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3">
+        <v>52</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.0448589486665639</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.06793587174348698</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="3">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.1497540535616688</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="3">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.1346025384101536</v>
+      </c>
+      <c r="G13" s="1">
+        <f>1/(POWER(B13,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f>MIN(K13,1-D13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="3">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.06793587174348698</v>
+      </c>
+      <c r="G14" s="1">
+        <f>1/(POWER(B14,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f>G14*H14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K14" s="1">
+        <f>I14*J14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <f>MIN(K14,1-D14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="3">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.07904698285459807</v>
+      </c>
+      <c r="G15" s="1">
+        <f>1/(POWER(B15,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <f>SQRT((D15-POWER(10,-4))*B15*((1-D15+POWER(10,-4))*B15))</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <f>G15*H15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K15" s="1">
+        <f>I15*J15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <f>MIN(K15,1-D15)</f>
         <v>0</v>
       </c>
     </row>
@@ -4350,7 +5211,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4361,7 +5222,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4384,45 +5245,45 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="B4" s="3">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.9591836734693877</v>
+        <v>0.053475935828877</v>
       </c>
       <c r="E4" s="3">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F4" s="1">
-        <v>-0.02414965986394557</v>
+        <v>0.02141180757236398</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -4450,22 +5311,22 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="B5" s="3">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.9743589743589743</v>
+        <v>0.0352112676056338</v>
       </c>
       <c r="E5" s="3">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F5" s="1">
-        <v>-0.008974358974358942</v>
+        <v>0.003147139349120781</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -4493,22 +5354,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="B6" s="3">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.5</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E6" s="3">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F6" s="1">
-        <v>-0.4833333333333333</v>
+        <v>0.000193936259616008</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -4531,6 +5392,221 @@
       </c>
       <c r="L6" s="1">
         <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="3">
+        <v>73</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.0410958904109589</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.009031762154445878</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="3">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.03703703703703703</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.004972908780524012</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="3">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.02198992579754103</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="3">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.05884496265257789</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="3">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.02675940115525168</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
         <v>0</v>
       </c>
     </row>
@@ -4542,7 +5618,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4553,7 +5629,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4576,45 +5652,45 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B4" s="3">
-        <v>420</v>
+        <v>997</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.9833333333333333</v>
+        <v>0.0320962888665998</v>
       </c>
       <c r="E4" s="3">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>3.216061008677606E-05</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -4642,22 +5718,22 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B5" s="3">
-        <v>420</v>
+        <v>991</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.9833333333333333</v>
+        <v>0.03229061553985873</v>
       </c>
       <c r="E5" s="3">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>0.0002264872833457054</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -4680,6 +5756,436 @@
       </c>
       <c r="L5" s="1">
         <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="3">
+        <v>539</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.04823747680890538</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.01617334855239236</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="3">
+        <v>344</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.06104651162790697</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.02898238337139395</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="3">
+        <v>204</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.05126920507682031</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="3">
+        <v>136</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.09558823529411764</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.06352410703760461</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="3">
+        <v>92</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.1195652173913044</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.08750108913479132</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="3">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.07904698285459807</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="3">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.1142857142857143</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.08222158602920127</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="3">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.08558293056701638</v>
+      </c>
+      <c r="G13" s="1">
+        <f>1/(POWER(B13,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f>MIN(K13,1-D13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="3">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.1901580939657092</v>
+      </c>
+      <c r="G14" s="1">
+        <f>1/(POWER(B14,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f>G14*H14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K14" s="1">
+        <f>I14*J14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <f>MIN(K14,1-D14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.167935871743487</v>
+      </c>
+      <c r="G15" s="1">
+        <f>1/(POWER(B15,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <f>SQRT((D15-POWER(10,-4))*B15*((1-D15+POWER(10,-4))*B15))</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <f>G15*H15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K15" s="1">
+        <f>I15*J15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <f>MIN(K15,1-D15)</f>
         <v>0</v>
       </c>
     </row>
@@ -4691,7 +6197,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4702,7 +6208,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4725,45 +6231,45 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="B4" s="3">
-        <v>204</v>
+        <v>622</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.9901960784313726</v>
+        <v>0.04340836012861737</v>
       </c>
       <c r="E4" s="3">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F4" s="1">
-        <v>0.006862745098039302</v>
+        <v>0.01134423187210434</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -4791,22 +6297,22 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="B5" s="3">
-        <v>134</v>
+        <v>492</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.9925373134328358</v>
+        <v>0.04471544715447155</v>
       </c>
       <c r="E5" s="3">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F5" s="1">
-        <v>0.009203980099502518</v>
+        <v>0.01265131889795852</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -4834,22 +6340,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="B6" s="3">
-        <v>3</v>
+        <v>365</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>1</v>
+        <v>0.04657534246575343</v>
       </c>
       <c r="E6" s="3">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F6" s="1">
-        <v>0.01666666666666672</v>
+        <v>0.0145112142092404</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -4877,22 +6383,22 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="B7" s="3">
-        <v>3</v>
+        <v>253</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>1</v>
+        <v>0.06324110671936758</v>
       </c>
       <c r="E7" s="3">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F7" s="1">
-        <v>0.01666666666666672</v>
+        <v>0.03117697846285456</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -4920,22 +6426,22 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="B8" s="3">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>1</v>
+        <v>0.09580838323353294</v>
       </c>
       <c r="E8" s="3">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F8" s="1">
-        <v>0.01666666666666672</v>
+        <v>0.06374425497701991</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -4958,6 +6464,264 @@
       </c>
       <c r="L8" s="1">
         <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="3">
+        <v>126</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.1031746031746032</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.07111047491809014</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="3">
+        <v>85</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.1058823529411765</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.07381822468466345</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="3">
+        <v>65</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.09230769230769231</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.06024356405117929</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="3">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.0975609756097561</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.06549684735324307</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="3">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.000193936259616008</v>
+      </c>
+      <c r="G13" s="1">
+        <f>1/(POWER(B13,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f>MIN(K13,1-D13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="3">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.01141413261305219</v>
+      </c>
+      <c r="G14" s="1">
+        <f>1/(POWER(B14,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f>G14*H14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K14" s="1">
+        <f>I14*J14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <f>MIN(K14,1-D14)</f>
         <v>0</v>
       </c>
     </row>
@@ -4969,7 +6733,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4980,7 +6744,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5003,42 +6767,42 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="B4" s="3">
-        <v>420</v>
+        <v>998</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="E4" s="3">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -5069,22 +6833,22 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="B5" s="3">
-        <v>281</v>
+        <v>683</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.9750889679715302</v>
+        <v>0.03367496339677892</v>
       </c>
       <c r="E5" s="3">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F5" s="1">
-        <v>-0.008244365361803063</v>
+        <v>0.001610835140265894</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -5107,6 +6871,221 @@
       </c>
       <c r="L5" s="1">
         <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="3">
+        <v>95</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.08421052631578947</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.05214639805927645</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="3">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.09615384615384616</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.06408971789733314</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="3">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.01141413261305219</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="3">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.0393644431720584</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="3">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.05884496265257789</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
         <v>0</v>
       </c>
     </row>
@@ -5118,7 +7097,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5129,7 +7108,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5152,45 +7131,45 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="B4" s="3">
-        <v>138</v>
+        <v>398</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.9855072463768116</v>
+        <v>0.06030150753768844</v>
       </c>
       <c r="E4" s="3">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F4" s="1">
-        <v>0.002173913043478359</v>
+        <v>0.02823737928117542</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -5218,22 +7197,22 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="B5" s="3">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.9354838709677419</v>
+        <v>0.1019108280254777</v>
       </c>
       <c r="E5" s="3">
-        <v>0.9833333333333333</v>
+        <v>0.03206412825651302</v>
       </c>
       <c r="F5" s="1">
-        <v>-0.0478494623655914</v>
+        <v>0.06984669976896468</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -5256,6 +7235,221 @@
       </c>
       <c r="L5" s="1">
         <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="3">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.1066666666666667</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.07460253841015366</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="3">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.04651162790697674</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.01444749965046372</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="3">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.04793587174348698</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="3">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.08558293056701638</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.03206412825651302</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.217935871743487</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
         <v>0</v>
       </c>
     </row>

--- a/06-03-2023/data/output/xlsx/sample_0/category__7.xlsx
+++ b/06-03-2023/data/output/xlsx/sample_0/category__7.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="146">
   <si>
     <t>Causality Values Chart</t>
   </si>
@@ -58,69 +58,54 @@
     <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+    <t>num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__9,pairs_of_parentheses__0,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__9,pairs_of_parentheses__0,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,pairs_of_parentheses__0,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,pairs_of_parentheses__0,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_decimals__0,pairs_of_parentheses__0,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,pairs_of_parentheses__0,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__12</t>
   </si>
   <si>
@@ -142,54 +127,186 @@
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
+    <t>num_of_decimals__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__1,num_of_decimals__2,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,pairs_of_parentheses__0,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_decimals__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__2,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,pairs_of_parentheses__0,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_decimals__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,pairs_of_parentheses__0,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_decimals__3</t>
+  </si>
+  <si>
+    <t>num_of_decimals__4</t>
+  </si>
+  <si>
+    <t>num_of_decimals__5</t>
+  </si>
+  <si>
+    <t>num_of_decimals__6</t>
+  </si>
+  <si>
+    <t>num_of_decimals__7</t>
+  </si>
+  <si>
+    <t>num_of_decimals__8</t>
+  </si>
+  <si>
+    <t>num_of_decimals__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,pairs_of_parentheses__0,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_decimals__10</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__9,num_of_decimals__11,num_of_decimals__12,pairs_of_parentheses__0,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_decimals__11</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__9,num_of_decimals__10,num_of_decimals__12,pairs_of_parentheses__0,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_decimals__12</t>
+  </si>
+  <si>
+    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,pairs_of_parentheses__0,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
+  </si>
+  <si>
+    <t>num_of_decimals__13</t>
+  </si>
+  <si>
+    <t>num_of_decimals__14</t>
+  </si>
+  <si>
+    <t>num_of_decimals__15</t>
+  </si>
+  <si>
+    <t>num_of_decimals__16</t>
+  </si>
+  <si>
+    <t>num_of_decimals__17</t>
+  </si>
+  <si>
+    <t>num_of_decimals__18</t>
+  </si>
+  <si>
+    <t>num_of_decimals__19</t>
+  </si>
+  <si>
+    <t>num_of_decimals__20</t>
+  </si>
+  <si>
+    <t>num_of_decimals__21</t>
+  </si>
+  <si>
+    <t>num_of_decimals__22</t>
+  </si>
+  <si>
+    <t>num_of_decimals__23</t>
+  </si>
+  <si>
+    <t>num_of_decimals__24</t>
+  </si>
+  <si>
+    <t>num_of_decimals__25</t>
+  </si>
+  <si>
+    <t>num_of_decimals__26</t>
+  </si>
+  <si>
+    <t>num_of_decimals__27</t>
+  </si>
+  <si>
+    <t>num_of_decimals__28</t>
+  </si>
+  <si>
+    <t>num_of_decimals__29</t>
+  </si>
+  <si>
+    <t>num_of_equals__0</t>
+  </si>
+  <si>
+    <t>num_of_equals__1</t>
+  </si>
+  <si>
+    <t>num_of_equals__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__3</t>
+  </si>
+  <si>
+    <t>num_of_equals__4</t>
+  </si>
+  <si>
+    <t>num_of_equals__5</t>
+  </si>
+  <si>
+    <t>num_of_equals__6</t>
+  </si>
+  <si>
+    <t>num_of_equals__7</t>
+  </si>
+  <si>
+    <t>num_of_equals__8</t>
+  </si>
+  <si>
+    <t>num_of_equals__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_equals__10</t>
+  </si>
+  <si>
+    <t>num_of_equals__11</t>
+  </si>
+  <si>
+    <t>num_of_equals__12</t>
+  </si>
+  <si>
+    <t>num_of_equals__13</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__0</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__8</t>
   </si>
   <si>
@@ -208,126 +325,78 @@
     <t>num_of_mults_and_divs__13</t>
   </si>
   <si>
-    <t>num_of_equals__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_equals__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_equals__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_equals__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_equals__4</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_equals__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_equals__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_equals__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_equals__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_equals__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_equals__10</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_equals__11</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_equals__12</t>
-  </si>
-  <si>
-    <t>num_of_equals__13</t>
+    <t>num_of_unknowns__0</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__1</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__3</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__4</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__5</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__7</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__9</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__10</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__11</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__12</t>
   </si>
   <si>
     <t>pairs_of_parentheses__0</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__9,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
   </si>
   <si>
     <t>pairs_of_parentheses__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,pairs_of_parentheses__0,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
   </si>
   <si>
     <t>pairs_of_parentheses__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,pairs_of_parentheses__0,pairs_of_parentheses__3,pairs_of_parentheses__5</t>
   </si>
   <si>
     <t>pairs_of_parentheses__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
+    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,pairs_of_parentheses__0,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>pairs_of_parentheses__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__7</t>
   </si>
   <si>
@@ -350,186 +419,6 @@
   </si>
   <si>
     <t>pairs_of_parentheses__14</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_decimals__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_decimals__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_decimals__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_decimals__4</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_decimals__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_decimals__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_decimals__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_decimals__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_decimals__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_decimals__10</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_decimals__11</t>
-  </si>
-  <si>
-    <t>num_of_decimals__12</t>
-  </si>
-  <si>
-    <t>num_of_decimals__13</t>
-  </si>
-  <si>
-    <t>num_of_decimals__14</t>
-  </si>
-  <si>
-    <t>num_of_decimals__15</t>
-  </si>
-  <si>
-    <t>num_of_decimals__16</t>
-  </si>
-  <si>
-    <t>num_of_decimals__17</t>
-  </si>
-  <si>
-    <t>num_of_decimals__18</t>
-  </si>
-  <si>
-    <t>num_of_decimals__19</t>
-  </si>
-  <si>
-    <t>num_of_decimals__20</t>
-  </si>
-  <si>
-    <t>num_of_decimals__21</t>
-  </si>
-  <si>
-    <t>num_of_decimals__22</t>
-  </si>
-  <si>
-    <t>num_of_decimals__23</t>
-  </si>
-  <si>
-    <t>num_of_decimals__24</t>
-  </si>
-  <si>
-    <t>num_of_decimals__25</t>
-  </si>
-  <si>
-    <t>num_of_decimals__26</t>
-  </si>
-  <si>
-    <t>num_of_decimals__27</t>
-  </si>
-  <si>
-    <t>num_of_decimals__28</t>
-  </si>
-  <si>
-    <t>num_of_decimals__29</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__0</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__4</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__7</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__9</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__10</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__11</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__12</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>
@@ -685,10 +574,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>AddsSubs!$C$4:$C$17</c:f>
+              <c:f>AddsSubs!$C$4:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -718,57 +607,45 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AddsSubs!$D$4:$D$17</c:f>
+              <c:f>AddsSubs!$D$4:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.03166496424923392</c:v>
+                  <c:v>0.9830097087378641</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.03631961259079903</c:v>
+                  <c:v>0.9791044776119403</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.05825242718446602</c:v>
+                  <c:v>0.9673913043478261</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.08080808080808081</c:v>
+                  <c:v>0.9787234042553191</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0761904761904762</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.08860759493670886</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.07692307692307693</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1818181818181818</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -889,10 +766,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>MultsDivs!$C$4:$C$13</c:f>
+              <c:f>MultsDivs!$C$4:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -916,39 +793,57 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MultsDivs!$D$4:$D$13</c:f>
+              <c:f>MultsDivs!$D$4:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.053475935828877</c:v>
+                  <c:v>0.9591836734693877</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0352112676056338</c:v>
+                  <c:v>0.9743589743589743</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.03225806451612903</c:v>
+                  <c:v>0.9545454545454546</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0410958904109589</c:v>
+                  <c:v>0.9411764705882353</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.03703703703703703</c:v>
+                  <c:v>0.9166666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.05405405405405406</c:v>
+                  <c:v>0.8333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.09090909090909091</c:v>
+                  <c:v>0.8333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.05882352941176471</c:v>
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1069,10 +964,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Equations!$C$4:$C$17</c:f>
+              <c:f>Equations!$C$4:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1102,57 +997,45 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Equations!$D$4:$D$17</c:f>
+              <c:f>Equations!$D$4:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.0320962888665998</c:v>
+                  <c:v>0.9833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.03229061553985873</c:v>
+                  <c:v>0.9833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.04823747680890538</c:v>
+                  <c:v>0.9759615384615384</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.06104651162790697</c:v>
+                  <c:v>0.9557522123893806</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.08333333333333333</c:v>
+                  <c:v>0.9090909090909091</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.09558823529411764</c:v>
+                  <c:v>0.8787878787878788</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1195652173913044</c:v>
+                  <c:v>0.8695652173913043</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1142857142857143</c:v>
+                  <c:v>0.9090909090909091</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1176470588235294</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2222222222222222</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1273,10 +1156,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Decimals!$C$4:$C$16</c:f>
+              <c:f>Decimals!$C$4:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1309,48 +1192,60 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Decimals!$D$4:$D$16</c:f>
+              <c:f>Decimals!$D$4:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.04340836012861737</c:v>
+                  <c:v>0.9901960784313726</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.04471544715447155</c:v>
+                  <c:v>0.9925373134328358</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.04657534246575343</c:v>
+                  <c:v>0.9886363636363636</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.06324110671936758</c:v>
+                  <c:v>0.9777777777777777</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.09580838323353294</c:v>
+                  <c:v>0.9655172413793104</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1031746031746032</c:v>
+                  <c:v>0.9411764705882353</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1058823529411765</c:v>
+                  <c:v>0.8571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.09230769230769231</c:v>
+                  <c:v>0.8333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0975609756097561</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.03225806451612903</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.04347826086956522</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1506,25 +1401,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.03206412825651302</c:v>
+                  <c:v>0.9833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.03367496339677892</c:v>
+                  <c:v>0.9750889679715302</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.08421052631578947</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.09615384615384616</c:v>
+                  <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.04347826086956522</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.07142857142857142</c:v>
+                  <c:v>0.3333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.09090909090909091</c:v>
+                  <c:v>0.3333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1645,10 +1540,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$C$4:$C$12</c:f>
+              <c:f>PairsOfParentheses!$C$4:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1666,39 +1561,33 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$D$4:$D$12</c:f>
+              <c:f>PairsOfParentheses!$D$4:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.06030150753768844</c:v>
+                  <c:v>0.9855072463768116</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1019108280254777</c:v>
+                  <c:v>0.9354838709677419</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1066666666666667</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.04651162790697674</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.08</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1176470588235294</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2315,16 +2204,16 @@
         <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>979</v>
+        <v>412</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>0.03166496424923392</v>
+        <v>0.9830097087378641</v>
       </c>
       <c r="E3" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
@@ -2336,260 +2225,250 @@
         <v>11</v>
       </c>
       <c r="B4" s="1">
-        <v>826</v>
+        <v>335</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03631961259079903</v>
+        <v>0.9791044776119403</v>
       </c>
       <c r="E4" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.09062161407338337</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1">
-        <v>309</v>
+        <v>92</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05825242718446602</v>
+        <v>0.9673913043478261</v>
       </c>
       <c r="E5" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.07814380947036295</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1">
-        <v>198</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>0.08080808080808081</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="E6" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.06785996190248443</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>0.0761904761904762</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1">
-        <v>0.04676760419452651</v>
+        <v>0.4404623867492778</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1">
         <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>0.08860759493670886</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G8" s="1">
-        <v>0.0539117315081746</v>
+        <v>0.3779282267438122</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
       </c>
       <c r="D9" s="1">
-        <v>0.07692307692307693</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G9" s="1">
-        <v>0.01359902696960811</v>
+        <v>0.2697265479554602</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
         <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G10" s="1">
-        <v>0.03024778537842564</v>
+        <v>0.2029942997617246</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1">
         <v>9</v>
       </c>
       <c r="D11" s="1">
-        <v>0.1818181818181818</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G11" s="1">
-        <v>0.09946119129391066</v>
+        <v>0.1280563446118442</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G12" s="1">
-        <v>0.0593488555661752</v>
+        <v>0.1280563446118442</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1">
         <v>11</v>
       </c>
       <c r="D13" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="1">
-        <v>-0.03107336349309952</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1">
         <v>12</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="1">
-        <v>-0.01862571439488262</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1">
         <v>13</v>
@@ -2598,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
@@ -2607,10 +2486,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1">
         <v>14</v>
@@ -2619,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
@@ -2628,10 +2507,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1">
         <v>15</v>
@@ -2640,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
@@ -2649,10 +2528,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C18" s="1">
         <v>16</v>
@@ -2661,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
@@ -2670,10 +2549,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B19" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" s="1">
         <v>17</v>
@@ -2682,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
@@ -2691,10 +2570,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B20" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1">
         <v>18</v>
@@ -2703,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
@@ -2712,10 +2591,10 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B21" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C21" s="1">
         <v>19</v>
@@ -2724,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
@@ -2733,203 +2612,193 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="C22" s="1">
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>0.053475935828877</v>
+        <v>0.9901960784313726</v>
       </c>
       <c r="E22" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G22" s="1">
-        <v>-0.06851180366561964</v>
+        <v>0.6223865732076295</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B23" s="1">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C23" s="1">
         <v>21</v>
       </c>
       <c r="D23" s="1">
-        <v>0.0352112676056338</v>
+        <v>0.9925373134328358</v>
       </c>
       <c r="E23" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G23" s="1">
-        <v>-0.0814716229511893</v>
+        <v>0.4992032596243683</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B24" s="1">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C24" s="1">
         <v>22</v>
       </c>
       <c r="D24" s="1">
-        <v>0.03225806451612903</v>
+        <v>0.9886363636363636</v>
       </c>
       <c r="E24" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G24" s="1">
-        <v>-0.05976660887318066</v>
+        <v>0.4262164804443249</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C25" s="1">
         <v>23</v>
       </c>
       <c r="D25" s="1">
-        <v>0.0410958904109589</v>
+        <v>0.9777777777777777</v>
       </c>
       <c r="E25" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" s="1">
-        <v>-0.04090906406845984</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B26" s="1">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C26" s="1">
         <v>24</v>
       </c>
       <c r="D26" s="1">
-        <v>0.03703703703703703</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="E26" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G26" s="1">
-        <v>-0.03774787336419584</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B27" s="1">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C27" s="1">
         <v>25</v>
       </c>
       <c r="D27" s="1">
-        <v>0.05405405405405406</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="E27" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="1">
-        <v>-0.02889574988876376</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B28" s="1">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C28" s="1">
         <v>26</v>
       </c>
       <c r="D28" s="1">
-        <v>0.09090909090909091</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E28" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0.03454521779378385</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B29" s="1">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C29" s="1">
         <v>27</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05882352941176471</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E29" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" s="1">
-        <v>-0.02063616248711367</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B30" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C30" s="1">
         <v>28</v>
       </c>
       <c r="D30" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E30" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
@@ -2938,49 +2807,53 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B31" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C31" s="1">
         <v>29</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1" t="s">
-        <v>10</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.2174402398028319</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B32" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C32" s="1">
         <v>30</v>
       </c>
       <c r="D32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1" t="s">
-        <v>10</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.2174402398028319</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B33" s="1">
         <v>3</v>
@@ -2989,43 +2862,47 @@
         <v>31</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1" t="s">
-        <v>10</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.2174402398028319</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B34" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" s="1">
         <v>32</v>
       </c>
       <c r="D34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1" t="s">
-        <v>10</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.004829311862310923</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" s="1">
         <v>33</v>
@@ -3034,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
@@ -3043,286 +2920,262 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B36" s="1">
-        <v>997</v>
+        <v>0</v>
       </c>
       <c r="C36" s="1">
         <v>34</v>
       </c>
       <c r="D36" s="1">
-        <v>0.0320962888665998</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0.0858829304990036</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B37" s="1">
-        <v>991</v>
+        <v>0</v>
       </c>
       <c r="C37" s="1">
         <v>35</v>
       </c>
       <c r="D37" s="1">
-        <v>0.03229061553985873</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0.08596809032847273</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B38" s="1">
-        <v>539</v>
+        <v>0</v>
       </c>
       <c r="C38" s="1">
         <v>36</v>
       </c>
       <c r="D38" s="1">
-        <v>0.04823747680890538</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0.06861603718574726</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B39" s="1">
-        <v>344</v>
+        <v>0</v>
       </c>
       <c r="C39" s="1">
         <v>37</v>
       </c>
       <c r="D39" s="1">
-        <v>0.06104651162790697</v>
+        <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0.06436964008666746</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B40" s="1">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="C40" s="1">
         <v>38</v>
       </c>
       <c r="D40" s="1">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0.07224071804897156</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B41" s="1">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="C41" s="1">
         <v>39</v>
       </c>
       <c r="D41" s="1">
-        <v>0.09558823529411764</v>
+        <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0.07774161206936928</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B42" s="1">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="C42" s="1">
         <v>40</v>
       </c>
       <c r="D42" s="1">
-        <v>0.1195652173913044</v>
+        <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0.05714076066865608</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B43" s="1">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C43" s="1">
         <v>41</v>
       </c>
       <c r="D43" s="1">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G43" s="1">
-        <v>0.05538855748635695</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B44" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C44" s="1">
         <v>42</v>
       </c>
       <c r="D44" s="1">
-        <v>0.1142857142857143</v>
+        <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G44" s="1">
-        <v>0.04590307525814948</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B45" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C45" s="1">
         <v>43</v>
       </c>
       <c r="D45" s="1">
-        <v>0.1176470588235294</v>
+        <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G45" s="1">
-        <v>0.03112036159235255</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B46" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C46" s="1">
         <v>44</v>
       </c>
       <c r="D46" s="1">
-        <v>0.2222222222222222</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G46" s="1">
-        <v>0.09797583171560979</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B47" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C47" s="1">
         <v>45</v>
       </c>
       <c r="D47" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G47" s="1">
-        <v>0.02516220262834747</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" s="1">
         <v>46</v>
@@ -3331,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
@@ -3340,10 +3193,10 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" s="1">
         <v>47</v>
@@ -3352,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
@@ -3361,180 +3214,166 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B50" s="1">
-        <v>398</v>
+        <v>0</v>
       </c>
       <c r="C50" s="1">
         <v>48</v>
       </c>
       <c r="D50" s="1">
-        <v>0.06030150753768844</v>
+        <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G50" s="1">
-        <v>0.002279250458302557</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B51" s="1">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="C51" s="1">
         <v>49</v>
       </c>
       <c r="D51" s="1">
-        <v>0.1019108280254777</v>
+        <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G51" s="1">
-        <v>0.06244157268858629</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B52" s="1">
-        <v>75</v>
+        <v>420</v>
       </c>
       <c r="C52" s="1">
         <v>50</v>
       </c>
       <c r="D52" s="1">
-        <v>0.1066666666666667</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="E52" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G52" s="1">
-        <v>0.06609275663548383</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B53" s="1">
-        <v>43</v>
+        <v>420</v>
       </c>
       <c r="C53" s="1">
         <v>51</v>
       </c>
       <c r="D53" s="1">
-        <v>0.04651162790697674</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="E53" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G53" s="1">
-        <v>-0.03893068033744247</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="B54" s="1">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="C54" s="1">
         <v>52</v>
       </c>
       <c r="D54" s="1">
-        <v>0.08</v>
+        <v>0.9759615384615384</v>
       </c>
       <c r="E54" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G54" s="1">
-        <v>-0.0115950265920289</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="B55" s="1">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="C55" s="1">
         <v>53</v>
       </c>
       <c r="D55" s="1">
-        <v>0.1176470588235294</v>
+        <v>0.9557522123893806</v>
       </c>
       <c r="E55" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G55" s="1">
-        <v>0.01811130755192036</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="B56" s="1">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C56" s="1">
         <v>54</v>
       </c>
       <c r="D56" s="1">
-        <v>0.25</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="E56" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G56" s="1">
-        <v>0.09711155460150377</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="B57" s="1">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C57" s="1">
         <v>55</v>
       </c>
       <c r="D57" s="1">
-        <v>0</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="E57" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
@@ -3543,19 +3382,19 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="B58" s="1">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C58" s="1">
         <v>56</v>
       </c>
       <c r="D58" s="1">
-        <v>0</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="E58" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
@@ -3564,19 +3403,19 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="B59" s="1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C59" s="1">
         <v>57</v>
       </c>
       <c r="D59" s="1">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="E59" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1" t="s">
@@ -3585,19 +3424,19 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="B60" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C60" s="1">
         <v>58</v>
       </c>
       <c r="D60" s="1">
-        <v>0</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="E60" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1" t="s">
@@ -3606,31 +3445,33 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="B61" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C61" s="1">
         <v>59</v>
       </c>
       <c r="D61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1" t="s">
-        <v>10</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0.004866180048661795</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B62" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C62" s="1">
         <v>60</v>
@@ -3639,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
@@ -3648,10 +3489,10 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="B63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" s="1">
         <v>61</v>
@@ -3660,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
@@ -3669,10 +3510,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="B64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" s="1">
         <v>62</v>
@@ -3681,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
@@ -3690,272 +3531,250 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="B65" s="1">
-        <v>622</v>
+        <v>0</v>
       </c>
       <c r="C65" s="1">
         <v>63</v>
       </c>
       <c r="D65" s="1">
-        <v>0.04340836012861737</v>
+        <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G65" s="1">
-        <v>0.09649871986040559</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="B66" s="1">
-        <v>492</v>
+        <v>49</v>
       </c>
       <c r="C66" s="1">
         <v>64</v>
       </c>
       <c r="D66" s="1">
-        <v>0.04471544715447155</v>
+        <v>0.9591836734693877</v>
       </c>
       <c r="E66" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G66" s="1">
-        <v>0.003978176902133148</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="B67" s="1">
-        <v>365</v>
+        <v>39</v>
       </c>
       <c r="C67" s="1">
         <v>65</v>
       </c>
       <c r="D67" s="1">
-        <v>0.04657534246575343</v>
+        <v>0.9743589743589743</v>
       </c>
       <c r="E67" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G67" s="1">
-        <v>-0.09330432959375877</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="B68" s="1">
-        <v>253</v>
+        <v>22</v>
       </c>
       <c r="C68" s="1">
         <v>66</v>
       </c>
       <c r="D68" s="1">
-        <v>0.06324110671936758</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="E68" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G68" s="1">
-        <v>-0.06699571699871447</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="B69" s="1">
-        <v>167</v>
+        <v>17</v>
       </c>
       <c r="C69" s="1">
         <v>67</v>
       </c>
       <c r="D69" s="1">
-        <v>0.09580838323353294</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="E69" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G69" s="1">
-        <v>-0.02765661962027768</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="B70" s="1">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="C70" s="1">
         <v>68</v>
       </c>
       <c r="D70" s="1">
-        <v>0.1031746031746032</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="E70" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G70" s="1">
-        <v>-0.01578772321414448</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="B71" s="1">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="C71" s="1">
         <v>69</v>
       </c>
       <c r="D71" s="1">
-        <v>0.1058823529411765</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E71" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G71" s="1">
-        <v>-0.0410668307679105</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="B72" s="1">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="C72" s="1">
         <v>70</v>
       </c>
       <c r="D72" s="1">
-        <v>0.09230769230769231</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E72" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G72" s="1">
-        <v>-0.04543633136789826</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="B73" s="1">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C73" s="1">
         <v>71</v>
       </c>
       <c r="D73" s="1">
-        <v>0.0975609756097561</v>
+        <v>0.8</v>
       </c>
       <c r="E73" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G73" s="1">
-        <v>-0.04223865826446917</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="B74" s="1">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C74" s="1">
         <v>72</v>
       </c>
       <c r="D74" s="1">
-        <v>0.03225806451612903</v>
+        <v>0.8</v>
       </c>
       <c r="E74" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G74" s="1">
-        <v>-0.07188640329083977</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="B75" s="1">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C75" s="1">
         <v>73</v>
       </c>
       <c r="D75" s="1">
-        <v>0.04347826086956522</v>
+        <v>0.5</v>
       </c>
       <c r="E75" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G75" s="1">
-        <v>-0.05710534868752699</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="B76" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C76" s="1">
         <v>74</v>
       </c>
       <c r="D76" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E76" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1" t="s">
@@ -3964,10 +3783,10 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="B77" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C77" s="1">
         <v>75</v>
@@ -3976,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1" t="s">
@@ -3985,10 +3804,10 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B78" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C78" s="1">
         <v>76</v>
@@ -3997,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
@@ -4006,10 +3825,10 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="B79" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C79" s="1">
         <v>77</v>
@@ -4018,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1" t="s">
@@ -4027,19 +3846,19 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="B80" s="1">
-        <v>6</v>
+        <v>420</v>
       </c>
       <c r="C80" s="1">
         <v>78</v>
       </c>
       <c r="D80" s="1">
-        <v>0</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="E80" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1" t="s">
@@ -4048,19 +3867,19 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="B81" s="1">
-        <v>5</v>
+        <v>281</v>
       </c>
       <c r="C81" s="1">
         <v>79</v>
       </c>
       <c r="D81" s="1">
-        <v>0</v>
+        <v>0.9750889679715302</v>
       </c>
       <c r="E81" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1" t="s">
@@ -4069,19 +3888,19 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="B82" s="1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C82" s="1">
         <v>80</v>
       </c>
       <c r="D82" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E82" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1" t="s">
@@ -4090,19 +3909,19 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="B83" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C83" s="1">
         <v>81</v>
       </c>
       <c r="D83" s="1">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E83" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1" t="s">
@@ -4111,19 +3930,19 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="B84" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C84" s="1">
         <v>82</v>
       </c>
       <c r="D84" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E84" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1" t="s">
@@ -4132,19 +3951,19 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="B85" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C85" s="1">
         <v>83</v>
       </c>
       <c r="D85" s="1">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E85" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1" t="s">
@@ -4153,19 +3972,19 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="B86" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C86" s="1">
         <v>84</v>
       </c>
       <c r="D86" s="1">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E86" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1" t="s">
@@ -4174,7 +3993,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B87" s="1">
         <v>2</v>
@@ -4186,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="E87" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1" t="s">
@@ -4195,7 +4014,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="B88" s="1">
         <v>2</v>
@@ -4207,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="E88" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1" t="s">
@@ -4216,10 +4035,10 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="B89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" s="1">
         <v>87</v>
@@ -4228,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1" t="s">
@@ -4237,10 +4056,10 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="B90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" s="1">
         <v>88</v>
@@ -4249,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1" t="s">
@@ -4258,10 +4077,10 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="B91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" s="1">
         <v>89</v>
@@ -4270,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1" t="s">
@@ -4279,10 +4098,10 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="B92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" s="1">
         <v>90</v>
@@ -4291,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="E92" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1" t="s">
@@ -4300,40 +4119,42 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="B93" s="1">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="C93" s="1">
         <v>91</v>
       </c>
       <c r="D93" s="1">
-        <v>0</v>
+        <v>0.9855072463768116</v>
       </c>
       <c r="E93" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1" t="s">
-        <v>10</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0.8194071498331134</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="B94" s="1">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C94" s="1">
         <v>92</v>
       </c>
       <c r="D94" s="1">
-        <v>0</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="E94" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1" t="s">
@@ -4342,19 +4163,19 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="B95" s="1">
-        <v>998</v>
+        <v>16</v>
       </c>
       <c r="C95" s="1">
         <v>93</v>
       </c>
       <c r="D95" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.875</v>
       </c>
       <c r="E95" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1" t="s">
@@ -4363,148 +4184,142 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="B96" s="1">
-        <v>683</v>
+        <v>9</v>
       </c>
       <c r="C96" s="1">
         <v>94</v>
       </c>
       <c r="D96" s="1">
-        <v>0.03367496339677892</v>
+        <v>1</v>
       </c>
       <c r="E96" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="G96" s="1">
-        <v>0.07680494370940943</v>
+        <v>0.3153518853825475</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="B97" s="1">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="C97" s="1">
         <v>95</v>
       </c>
       <c r="D97" s="1">
-        <v>0.08421052631578947</v>
+        <v>1</v>
       </c>
       <c r="E97" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="G97" s="1">
-        <v>0.004619896881095549</v>
+        <v>0.1460116683742604</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B98" s="1">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="C98" s="1">
         <v>96</v>
       </c>
       <c r="D98" s="1">
-        <v>0.09615384615384616</v>
+        <v>1</v>
       </c>
       <c r="E98" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="G98" s="1">
-        <v>-0.04849784991151879</v>
+        <v>0.003370041308034831</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="B99" s="1">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C99" s="1">
         <v>97</v>
       </c>
       <c r="D99" s="1">
-        <v>0.04347826086956522</v>
+        <v>0</v>
       </c>
       <c r="E99" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G99" s="1">
-        <v>-0.05675019494708491</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="B100" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C100" s="1">
         <v>98</v>
       </c>
       <c r="D100" s="1">
-        <v>0.07142857142857142</v>
+        <v>0</v>
       </c>
       <c r="E100" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G100" s="1">
-        <v>-0.04143527141782526</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="B101" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C101" s="1">
         <v>99</v>
       </c>
       <c r="D101" s="1">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="E101" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G101" s="1">
-        <v>-0.03068347069361152</v>
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="B102" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C102" s="1">
         <v>100</v>
@@ -4513,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1" t="s">
@@ -4522,10 +4337,10 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="B103" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C103" s="1">
         <v>101</v>
@@ -4534,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="E103" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1" t="s">
@@ -4543,10 +4358,10 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="B104" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C104" s="1">
         <v>102</v>
@@ -4555,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="E104" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1" t="s">
@@ -4564,10 +4379,10 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="B105" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C105" s="1">
         <v>103</v>
@@ -4576,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="E105" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1" t="s">
@@ -4585,10 +4400,10 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="B106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" s="1">
         <v>104</v>
@@ -4597,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="E106" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1" t="s">
@@ -4606,10 +4421,10 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="B107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" s="1">
         <v>105</v>
@@ -4618,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="E107" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1" t="s">
@@ -4632,7 +4447,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4643,7 +4458,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4666,25 +4481,25 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -4692,19 +4507,19 @@
         <v>9</v>
       </c>
       <c r="B4" s="3">
-        <v>979</v>
+        <v>412</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.03166496424923392</v>
+        <v>0.9830097087378641</v>
       </c>
       <c r="E4" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F4" s="1">
-        <v>-0.0003991640072791083</v>
+        <v>-0.0003236245954691963</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -4735,19 +4550,19 @@
         <v>11</v>
       </c>
       <c r="B5" s="3">
-        <v>826</v>
+        <v>335</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.03631961259079903</v>
+        <v>0.9791044776119403</v>
       </c>
       <c r="E5" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F5" s="1">
-        <v>0.004255484334286005</v>
+        <v>-0.004228855721392977</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -4775,22 +4590,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3">
-        <v>309</v>
+        <v>92</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.05825242718446602</v>
+        <v>0.9673913043478261</v>
       </c>
       <c r="E6" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F6" s="1">
-        <v>0.026188298927953</v>
+        <v>-0.01594202898550723</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -4818,22 +4633,22 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3">
-        <v>198</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.08080808080808081</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="E7" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F7" s="1">
-        <v>0.04874395255156779</v>
+        <v>-0.004609929078014163</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -4861,22 +4676,22 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.0761904761904762</v>
+        <v>1</v>
       </c>
       <c r="E8" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F8" s="1">
-        <v>0.04412634793396317</v>
+        <v>0.01666666666666672</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -4904,22 +4719,22 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1">
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.08860759493670886</v>
+        <v>1</v>
       </c>
       <c r="E9" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F9" s="1">
-        <v>0.05654346668019584</v>
+        <v>0.01666666666666672</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -4947,22 +4762,22 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1">
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.07692307692307693</v>
+        <v>1</v>
       </c>
       <c r="E10" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F10" s="1">
-        <v>0.0448589486665639</v>
+        <v>0.01666666666666672</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -4990,22 +4805,22 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1">
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E11" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F11" s="1">
-        <v>0.06793587174348698</v>
+        <v>0.01666666666666672</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -5033,22 +4848,22 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1">
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>0.1818181818181818</v>
+        <v>1</v>
       </c>
       <c r="E12" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F12" s="1">
-        <v>0.1497540535616688</v>
+        <v>0.01666666666666672</v>
       </c>
       <c r="G12" s="1">
         <f>1/(POWER(B12,1.5))</f>
@@ -5076,22 +4891,22 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B13" s="3">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1">
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="E13" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F13" s="1">
-        <v>0.1346025384101536</v>
+        <v>0.01666666666666672</v>
       </c>
       <c r="G13" s="1">
         <f>1/(POWER(B13,1.5))</f>
@@ -5114,92 +4929,6 @@
       </c>
       <c r="L13" s="1">
         <f>MIN(K13,1-D13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="3">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.06793587174348698</v>
-      </c>
-      <c r="G14" s="1">
-        <f>1/(POWER(B14,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <f>G14*H14</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K14" s="1">
-        <f>I14*J14</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <f>MIN(K14,1-D14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="3">
-        <v>9</v>
-      </c>
-      <c r="C15" s="1">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.07904698285459807</v>
-      </c>
-      <c r="G15" s="1">
-        <f>1/(POWER(B15,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <f>SQRT((D15-POWER(10,-4))*B15*((1-D15+POWER(10,-4))*B15))</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <f>G15*H15</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K15" s="1">
-        <f>I15*J15</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <f>MIN(K15,1-D15)</f>
         <v>0</v>
       </c>
     </row>
@@ -5210,992 +4939,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="3">
-        <v>187</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.053475935828877</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.02141180757236398</v>
-      </c>
-      <c r="G4" s="1">
-        <f>1/(POWER(B4,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <f>SQRT((D4-POWER(10,-4))*B4*((1-D4+POWER(10,-4))*B4))</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <f>G4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K4" s="1">
-        <f>I4*J4</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <f>MIN(K4,1-D4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="3">
-        <v>142</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.0352112676056338</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.003147139349120781</v>
-      </c>
-      <c r="G5" s="1">
-        <f>1/(POWER(B5,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <f>SQRT((D5-POWER(10,-4))*B5*((1-D5+POWER(10,-4))*B5))</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <f>G5*H5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K5" s="1">
-        <f>I5*J5</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <f>MIN(K5,1-D5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="3">
-        <v>93</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.000193936259616008</v>
-      </c>
-      <c r="G6" s="1">
-        <f>1/(POWER(B6,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <f>G6*H6</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K6" s="1">
-        <f>I6*J6</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <f>MIN(K6,1-D6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="3">
-        <v>73</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.0410958904109589</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.009031762154445878</v>
-      </c>
-      <c r="G7" s="1">
-        <f>1/(POWER(B7,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <f>G7*H7</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K7" s="1">
-        <f>I7*J7</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <f>MIN(K7,1-D7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="3">
-        <v>54</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.03703703703703703</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.004972908780524012</v>
-      </c>
-      <c r="G8" s="1">
-        <f>1/(POWER(B8,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <f>G8*H8</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K8" s="1">
-        <f>I8*J8</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <f>MIN(K8,1-D8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="3">
-        <v>37</v>
-      </c>
-      <c r="C9" s="1">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.02198992579754103</v>
-      </c>
-      <c r="G9" s="1">
-        <f>1/(POWER(B9,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <f>G9*H9</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K9" s="1">
-        <f>I9*J9</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <f>MIN(K9,1-D9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="3">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.05884496265257789</v>
-      </c>
-      <c r="G10" s="1">
-        <f>1/(POWER(B10,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <f>G10*H10</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K10" s="1">
-        <f>I10*J10</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <f>MIN(K10,1-D10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="3">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.05882352941176471</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.02675940115525168</v>
-      </c>
-      <c r="G11" s="1">
-        <f>1/(POWER(B11,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <f>G11*H11</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K11" s="1">
-        <f>I11*J11</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <f>MIN(K11,1-D11)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="3">
-        <v>997</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.0320962888665998</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F4" s="1">
-        <v>3.216061008677606E-05</v>
-      </c>
-      <c r="G4" s="1">
-        <f>1/(POWER(B4,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <f>SQRT((D4-POWER(10,-4))*B4*((1-D4+POWER(10,-4))*B4))</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <f>G4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K4" s="1">
-        <f>I4*J4</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <f>MIN(K4,1-D4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="3">
-        <v>991</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.03229061553985873</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.0002264872833457054</v>
-      </c>
-      <c r="G5" s="1">
-        <f>1/(POWER(B5,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <f>SQRT((D5-POWER(10,-4))*B5*((1-D5+POWER(10,-4))*B5))</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <f>G5*H5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K5" s="1">
-        <f>I5*J5</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <f>MIN(K5,1-D5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="3">
-        <v>539</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.04823747680890538</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.01617334855239236</v>
-      </c>
-      <c r="G6" s="1">
-        <f>1/(POWER(B6,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <f>G6*H6</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K6" s="1">
-        <f>I6*J6</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <f>MIN(K6,1-D6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="3">
-        <v>344</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.06104651162790697</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.02898238337139395</v>
-      </c>
-      <c r="G7" s="1">
-        <f>1/(POWER(B7,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <f>G7*H7</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K7" s="1">
-        <f>I7*J7</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <f>MIN(K7,1-D7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="3">
-        <v>204</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.05126920507682031</v>
-      </c>
-      <c r="G8" s="1">
-        <f>1/(POWER(B8,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <f>G8*H8</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K8" s="1">
-        <f>I8*J8</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <f>MIN(K8,1-D8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="3">
-        <v>136</v>
-      </c>
-      <c r="C9" s="1">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.09558823529411764</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.06352410703760461</v>
-      </c>
-      <c r="G9" s="1">
-        <f>1/(POWER(B9,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <f>G9*H9</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K9" s="1">
-        <f>I9*J9</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <f>MIN(K9,1-D9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="3">
-        <v>92</v>
-      </c>
-      <c r="C10" s="1">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.1195652173913044</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.08750108913479132</v>
-      </c>
-      <c r="G10" s="1">
-        <f>1/(POWER(B10,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <f>G10*H10</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K10" s="1">
-        <f>I10*J10</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <f>MIN(K10,1-D10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="3">
-        <v>54</v>
-      </c>
-      <c r="C11" s="1">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.07904698285459807</v>
-      </c>
-      <c r="G11" s="1">
-        <f>1/(POWER(B11,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <f>G11*H11</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K11" s="1">
-        <f>I11*J11</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <f>MIN(K11,1-D11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="3">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.1142857142857143</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.08222158602920127</v>
-      </c>
-      <c r="G12" s="1">
-        <f>1/(POWER(B12,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <f>G12*H12</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K12" s="1">
-        <f>I12*J12</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <f>MIN(K12,1-D12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="3">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.08558293056701638</v>
-      </c>
-      <c r="G13" s="1">
-        <f>1/(POWER(B13,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <f>G13*H13</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K13" s="1">
-        <f>I13*J13</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <f>MIN(K13,1-D13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="3">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.1901580939657092</v>
-      </c>
-      <c r="G14" s="1">
-        <f>1/(POWER(B14,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <f>G14*H14</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K14" s="1">
-        <f>I14*J14</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <f>MIN(K14,1-D14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="3">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.167935871743487</v>
-      </c>
-      <c r="G15" s="1">
-        <f>1/(POWER(B15,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <f>SQRT((D15-POWER(10,-4))*B15*((1-D15+POWER(10,-4))*B15))</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <f>G15*H15</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K15" s="1">
-        <f>I15*J15</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <f>MIN(K15,1-D15)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L14"/>
   <sheetViews>
@@ -6208,7 +4951,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6231,45 +4974,45 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="B4" s="3">
-        <v>622</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.04340836012861737</v>
+        <v>0.9591836734693877</v>
       </c>
       <c r="E4" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F4" s="1">
-        <v>0.01134423187210434</v>
+        <v>-0.02414965986394557</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -6297,22 +5040,22 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="B5" s="3">
-        <v>492</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.04471544715447155</v>
+        <v>0.9743589743589743</v>
       </c>
       <c r="E5" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F5" s="1">
-        <v>0.01265131889795852</v>
+        <v>-0.008974358974358942</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -6340,22 +5083,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="B6" s="3">
-        <v>365</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.04657534246575343</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="E6" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F6" s="1">
-        <v>0.0145112142092404</v>
+        <v>-0.0287878787878787</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -6383,22 +5126,22 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="B7" s="3">
-        <v>253</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.06324110671936758</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="E7" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F7" s="1">
-        <v>0.03117697846285456</v>
+        <v>-0.042156862745098</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -6426,22 +5169,22 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="B8" s="3">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.09580838323353294</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="E8" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F8" s="1">
-        <v>0.06374425497701991</v>
+        <v>-0.06666666666666665</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -6469,22 +5212,22 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="B9" s="3">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1">
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.1031746031746032</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E9" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F9" s="1">
-        <v>0.07111047491809014</v>
+        <v>-0.1499999999999999</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -6512,22 +5255,22 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="B10" s="3">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1">
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.1058823529411765</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E10" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F10" s="1">
-        <v>0.07381822468466345</v>
+        <v>-0.1499999999999999</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -6555,22 +5298,22 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="B11" s="3">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1">
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.09230769230769231</v>
+        <v>0.8</v>
       </c>
       <c r="E11" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F11" s="1">
-        <v>0.06024356405117929</v>
+        <v>-0.1833333333333332</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -6598,22 +5341,22 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="B12" s="3">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1">
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>0.0975609756097561</v>
+        <v>0.8</v>
       </c>
       <c r="E12" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F12" s="1">
-        <v>0.06549684735324307</v>
+        <v>-0.1833333333333332</v>
       </c>
       <c r="G12" s="1">
         <f>1/(POWER(B12,1.5))</f>
@@ -6641,22 +5384,22 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="B13" s="3">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1">
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>0.03225806451612903</v>
+        <v>0.5</v>
       </c>
       <c r="E13" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F13" s="1">
-        <v>0.000193936259616008</v>
+        <v>-0.4833333333333333</v>
       </c>
       <c r="G13" s="1">
         <f>1/(POWER(B13,1.5))</f>
@@ -6684,22 +5427,22 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="B14" s="3">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1">
         <v>11</v>
       </c>
       <c r="D14" s="3">
-        <v>0.04347826086956522</v>
+        <v>0.5</v>
       </c>
       <c r="E14" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F14" s="1">
-        <v>0.01141413261305219</v>
+        <v>-0.4833333333333333</v>
       </c>
       <c r="G14" s="1">
         <f>1/(POWER(B14,1.5))</f>
@@ -6722,6 +5465,1121 @@
       </c>
       <c r="L14" s="1">
         <f>MIN(K14,1-D14)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="80.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="3">
+        <v>420</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <f>1/(POWER(B4,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f>SQRT((D4-POWER(10,-4))*B4*((1-D4+POWER(10,-4))*B4))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f>G4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K4" s="1">
+        <f>I4*J4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <f>MIN(K4,1-D4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="3">
+        <v>420</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <f>1/(POWER(B5,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f>SQRT((D5-POWER(10,-4))*B5*((1-D5+POWER(10,-4))*B5))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f>G5*H5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K5" s="1">
+        <f>I5*J5</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="3">
+        <v>208</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.9759615384615384</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-0.007371794871794846</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="3">
+        <v>113</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.9557522123893806</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.02758112094395271</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="3">
+        <v>55</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-0.07424242424242422</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="3">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.8787878787878788</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-0.1045454545454545</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="3">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-0.113768115942029</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="3">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-0.1083333333333333</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-0.07424242424242422</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.01666666666666672</v>
+      </c>
+      <c r="G13" s="1">
+        <f>1/(POWER(B13,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f>MIN(K13,1-D13)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="80.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3">
+        <v>204</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.9901960784313726</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.006862745098039302</v>
+      </c>
+      <c r="G4" s="1">
+        <f>1/(POWER(B4,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f>SQRT((D4-POWER(10,-4))*B4*((1-D4+POWER(10,-4))*B4))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f>G4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K4" s="1">
+        <f>I4*J4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <f>MIN(K4,1-D4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="3">
+        <v>134</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.9925373134328358</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.009203980099502518</v>
+      </c>
+      <c r="G5" s="1">
+        <f>1/(POWER(B5,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f>SQRT((D5-POWER(10,-4))*B5*((1-D5+POWER(10,-4))*B5))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f>G5*H5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K5" s="1">
+        <f>I5*J5</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="3">
+        <v>88</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.9886363636363636</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.005303030303030365</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.9777777777777777</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.005555555555555536</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="3">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.9655172413793104</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-0.01781609195402289</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="3">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.9411764705882353</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-0.042156862745098</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="3">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-0.1261904761904762</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="3">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-0.1499999999999999</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-0.1833333333333332</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.01666666666666672</v>
+      </c>
+      <c r="G13" s="1">
+        <f>1/(POWER(B13,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f>MIN(K13,1-D13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.01666666666666672</v>
+      </c>
+      <c r="G14" s="1">
+        <f>1/(POWER(B14,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f>G14*H14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K14" s="1">
+        <f>I14*J14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <f>MIN(K14,1-D14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.01666666666666672</v>
+      </c>
+      <c r="G15" s="1">
+        <f>1/(POWER(B15,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <f>SQRT((D15-POWER(10,-4))*B15*((1-D15+POWER(10,-4))*B15))</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <f>G15*H15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K15" s="1">
+        <f>I15*J15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <f>MIN(K15,1-D15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.01666666666666672</v>
+      </c>
+      <c r="G16" s="1">
+        <f>1/(POWER(B16,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <f>SQRT((D16-POWER(10,-4))*B16*((1-D16+POWER(10,-4))*B16))</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <f>G16*H16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K16" s="1">
+        <f>I16*J16</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <f>MIN(K16,1-D16)</f>
         <v>0</v>
       </c>
     </row>
@@ -6744,7 +6602,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6767,42 +6625,42 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="B4" s="3">
-        <v>998</v>
+        <v>420</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="E4" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -6833,22 +6691,22 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="B5" s="3">
-        <v>683</v>
+        <v>281</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.03367496339677892</v>
+        <v>0.9750889679715302</v>
       </c>
       <c r="E5" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F5" s="1">
-        <v>0.001610835140265894</v>
+        <v>-0.008244365361803063</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -6876,22 +6734,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="B6" s="3">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.08421052631578947</v>
+        <v>0.8</v>
       </c>
       <c r="E6" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F6" s="1">
-        <v>0.05214639805927645</v>
+        <v>-0.1833333333333332</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -6919,22 +6777,22 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="B7" s="3">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.09615384615384616</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E7" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F7" s="1">
-        <v>0.06408971789733314</v>
+        <v>-0.4119047619047619</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -6962,22 +6820,22 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="B8" s="3">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.04347826086956522</v>
+        <v>0.5</v>
       </c>
       <c r="E8" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F8" s="1">
-        <v>0.01141413261305219</v>
+        <v>-0.4833333333333333</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -7005,22 +6863,22 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="B9" s="3">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1">
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.07142857142857142</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E9" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F9" s="1">
-        <v>0.0393644431720584</v>
+        <v>-0.6499999999999999</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -7048,22 +6906,22 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="B10" s="3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1">
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.09090909090909091</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E10" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F10" s="1">
-        <v>0.05884496265257789</v>
+        <v>-0.6499999999999999</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -7097,7 +6955,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7108,7 +6966,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -7131,45 +6989,45 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="B4" s="3">
-        <v>398</v>
+        <v>138</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.06030150753768844</v>
+        <v>0.9855072463768116</v>
       </c>
       <c r="E4" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F4" s="1">
-        <v>0.02823737928117542</v>
+        <v>0.002173913043478359</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -7197,22 +7055,22 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="B5" s="3">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1019108280254777</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="E5" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F5" s="1">
-        <v>0.06984669976896468</v>
+        <v>-0.0478494623655914</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -7240,22 +7098,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="B6" s="3">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.1066666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="E6" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F6" s="1">
-        <v>0.07460253841015366</v>
+        <v>-0.1083333333333333</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -7283,22 +7141,22 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B7" s="3">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.04651162790697674</v>
+        <v>1</v>
       </c>
       <c r="E7" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F7" s="1">
-        <v>0.01444749965046372</v>
+        <v>0.01666666666666672</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -7326,22 +7184,22 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B8" s="3">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.08</v>
+        <v>1</v>
       </c>
       <c r="E8" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F8" s="1">
-        <v>0.04793587174348698</v>
+        <v>0.01666666666666672</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -7369,22 +7227,22 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B9" s="3">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1">
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.1176470588235294</v>
+        <v>1</v>
       </c>
       <c r="E9" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="F9" s="1">
-        <v>0.08558293056701638</v>
+        <v>0.01666666666666672</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -7407,49 +7265,6 @@
       </c>
       <c r="L9" s="1">
         <f>MIN(K9,1-D9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.217935871743487</v>
-      </c>
-      <c r="G10" s="1">
-        <f>1/(POWER(B10,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <f>G10*H10</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K10" s="1">
-        <f>I10*J10</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <f>MIN(K10,1-D10)</f>
         <v>0</v>
       </c>
     </row>
